--- a/results/comparaison/GM/depolarization/mean_raw_data.xlsx
+++ b/results/comparaison/GM/depolarization/mean_raw_data.xlsx
@@ -679,716 +679,830 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.8078260166015773</v>
+      </c>
+      <c r="C2">
+        <v>0.8866869770301262</v>
+      </c>
+      <c r="D2">
+        <v>0.8511265844161098</v>
+      </c>
+      <c r="E2">
         <v>0.8424917049552499</v>
       </c>
-      <c r="C2">
+      <c r="F2">
+        <v>0.8449504514903359</v>
+      </c>
+      <c r="G2">
+        <v>0.8426385131331604</v>
+      </c>
+      <c r="H2">
+        <v>0.8516755859120387</v>
+      </c>
+      <c r="I2">
+        <v>0.8673618510320675</v>
+      </c>
+      <c r="J2">
         <v>0.8143096697403833</v>
       </c>
-      <c r="D2">
-        <v>0.8272250586609852</v>
-      </c>
-      <c r="E2">
-        <v>0.7838999917038949</v>
-      </c>
-      <c r="F2">
+      <c r="K2">
         <v>0.8188582122772929</v>
       </c>
-      <c r="G2">
-        <v>0.8216782197183632</v>
-      </c>
-      <c r="H2">
+      <c r="L2">
+        <v>0.7886594675408231</v>
+      </c>
+      <c r="M2">
+        <v>0.7845085029739576</v>
+      </c>
+      <c r="N2">
         <v>0.845954510787327</v>
       </c>
-      <c r="I2">
+      <c r="O2">
         <v>0.8247661816848652</v>
       </c>
-      <c r="J2">
+      <c r="P2">
         <v>0.8082932959532794</v>
       </c>
-      <c r="K2">
-        <v>0.8623294248185787</v>
-      </c>
-      <c r="L2">
-        <v>0.804924053654011</v>
-      </c>
-      <c r="M2">
-        <v>0.8449504514903359</v>
-      </c>
-      <c r="N2">
+      <c r="Q2">
         <v>0.8441128530946994</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>0.8228085625758423</v>
       </c>
-      <c r="P2">
-        <v>0.7948223025662651</v>
-      </c>
-      <c r="Q2">
-        <v>0.85608985174478</v>
-      </c>
-      <c r="R2">
-        <v>0.7980216215784002</v>
-      </c>
       <c r="S2">
-        <v>0.8411729707681923</v>
+        <v>0.8609992355767497</v>
       </c>
       <c r="T2">
-        <v>0.8236665731810092</v>
+        <v>0.8955303958719776</v>
       </c>
       <c r="U2">
-        <v>0.8426385131331604</v>
+        <v>0.7728566186394703</v>
       </c>
       <c r="V2">
-        <v>0.8585225021662031</v>
+        <v>0.8260163698224554</v>
       </c>
       <c r="W2">
-        <v>0.8075408444785482</v>
+        <v>0.8600653361526865</v>
       </c>
       <c r="X2">
-        <v>0.8516755859120387</v>
+        <v>0.8790546119758719</v>
       </c>
       <c r="Y2">
-        <v>0.8153981256370616</v>
+        <v>0.8571322088375453</v>
       </c>
       <c r="Z2">
-        <v>0.8673618510320675</v>
+        <v>0.8129086458498881</v>
       </c>
       <c r="AA2">
-        <v>0.8272417401744832</v>
+        <v>0.8051344277052386</v>
       </c>
       <c r="AB2">
-        <v>0.8724748020184674</v>
+        <v>0.9379825523507788</v>
       </c>
       <c r="AC2">
-        <v>0.8370739692551351</v>
+        <v>0.6950882445762032</v>
       </c>
       <c r="AD2">
-        <v>0.8145479056488466</v>
+        <v>0.8796481920797194</v>
       </c>
       <c r="AE2">
-        <v>0.8679345881387683</v>
+        <v>0.8161991299017728</v>
       </c>
       <c r="AF2">
-        <v>0.8236214891780181</v>
+        <v>0.8624347335446885</v>
       </c>
       <c r="AG2">
-        <v>0.8657231064156153</v>
+        <v>0.7783404794059071</v>
       </c>
       <c r="AH2">
-        <v>0.7808249564573349</v>
+        <v>0.8289056609262214</v>
       </c>
       <c r="AI2">
-        <v>0.7854135470218483</v>
+        <v>0.7940782752901834</v>
       </c>
       <c r="AJ2">
-        <v>0.8750066393305258</v>
+        <v>0.8565090375285703</v>
       </c>
       <c r="AK2">
-        <v>0.8278634835499256</v>
+        <v>0.8574372361971925</v>
       </c>
       <c r="AL2">
-        <v>0.8239750885615679</v>
+        <v>0.8196427721857756</v>
       </c>
       <c r="AM2">
-        <v>0.8348511628221457</v>
+        <v>0.8250973627791407</v>
       </c>
       <c r="AN2">
-        <v>0.8647725096939992</v>
+        <v>0.7809752347615787</v>
       </c>
       <c r="AO2">
-        <v>0.806294958287201</v>
+        <v>0.8708332379106157</v>
       </c>
       <c r="AP2">
-        <v>0.8883082156306173</v>
+        <v>0.805371707563736</v>
       </c>
       <c r="AQ2">
-        <v>0.8122975885862351</v>
+        <v>0.7724070651235961</v>
       </c>
       <c r="AR2">
-        <v>0.7841824528655398</v>
+        <v>0.81816990130746</v>
       </c>
       <c r="AS2">
-        <v>0.9385400748843702</v>
+        <v>0.8322750971457844</v>
       </c>
       <c r="AT2">
-        <v>0.8328293901196149</v>
+        <v>0.7730389773934757</v>
       </c>
       <c r="AU2">
-        <v>0.8867926759205186</v>
+        <v>0.8046769364933872</v>
       </c>
       <c r="AV2">
-        <v>0.8760978895629336</v>
+        <v>0.817020522720276</v>
       </c>
       <c r="AW2">
-        <v>0.8136857668748598</v>
+        <v>0.7739853546656306</v>
       </c>
       <c r="AX2">
-        <v>0.8174746657995686</v>
+        <v>0.816992405997733</v>
       </c>
       <c r="AY2">
-        <v>0.8132459651348123</v>
+        <v>0.7440705997598607</v>
       </c>
       <c r="AZ2">
-        <v>0.8037776972182271</v>
+        <v>0.6366709731597608</v>
       </c>
       <c r="BA2">
-        <v>0.8200516278119071</v>
+        <v>0.8254606130547302</v>
       </c>
       <c r="BB2">
-        <v>0.839290735866509</v>
+        <v>0.7974574571209465</v>
       </c>
       <c r="BC2">
-        <v>0.797359667411929</v>
+        <v>0.799079129445554</v>
       </c>
       <c r="BD2">
-        <v>0.7739121372122884</v>
+        <v>0.7240621023256603</v>
       </c>
       <c r="BE2">
-        <v>0.7945991388515387</v>
+        <v>0.8209676803724111</v>
       </c>
       <c r="BF2">
-        <v>0.8373738968680701</v>
+        <v>0.7681578761494583</v>
       </c>
       <c r="BG2">
-        <v>0.8370306031464188</v>
+        <v>0.7640472859197769</v>
       </c>
       <c r="BH2">
-        <v>0.8124884218951547</v>
+        <v>0.7752967076219153</v>
       </c>
       <c r="BI2">
-        <v>0.7792560045436576</v>
+        <v>0.8397839549898231</v>
       </c>
       <c r="BJ2">
-        <v>0.757282303989862</v>
+        <v>0.7514808018214676</v>
       </c>
       <c r="BK2">
-        <v>0.7322273597243358</v>
+        <v>0.8328245697509676</v>
       </c>
       <c r="BL2">
-        <v>0.7515950268371168</v>
+        <v>0.7427815326923388</v>
       </c>
       <c r="BM2">
-        <v>0.7333220272321255</v>
+        <v>0.7524222141751477</v>
       </c>
       <c r="BN2">
-        <v>0.7603163099291937</v>
+        <v>0.7669806625726596</v>
       </c>
       <c r="BO2">
-        <v>0.7847666519323832</v>
+        <v>0.8493042902015798</v>
       </c>
       <c r="BP2">
-        <v>0.8824939288602871</v>
+        <v>0.7632898031392358</v>
       </c>
       <c r="BQ2">
-        <v>0.848501955744918</v>
+        <v>0.6659550413623294</v>
       </c>
       <c r="BR2">
-        <v>0.7506734452109103</v>
+        <v>0.7876450109042787</v>
       </c>
       <c r="BS2">
-        <v>0.797087089063991</v>
+        <v>0.7603848194113394</v>
       </c>
       <c r="BT2">
-        <v>0.8403270793083422</v>
+        <v>0.7514421863255706</v>
       </c>
       <c r="BU2">
-        <v>0.7437773070869443</v>
+        <v>0.7925773443122134</v>
       </c>
       <c r="BV2">
-        <v>0.7909886963936887</v>
+        <v>0.7753671889194397</v>
       </c>
       <c r="BW2">
-        <v>0.7265951873793474</v>
+        <v>0.7734336233140886</v>
       </c>
       <c r="BX2">
-        <v>0.7928172437471176</v>
+        <v>0.7398560213357961</v>
       </c>
       <c r="BY2">
-        <v>0.8189398382340785</v>
+        <v>0.8269019123951082</v>
       </c>
       <c r="BZ2">
-        <v>0.87081837508451</v>
+        <v>0.7333377814268964</v>
       </c>
       <c r="CA2">
-        <v>0.8475945494601135</v>
+        <v>0.8698824611685767</v>
       </c>
       <c r="CB2">
-        <v>0.7809520961565716</v>
+        <v>0.8197384690663759</v>
       </c>
       <c r="CC2">
-        <v>0.8566425153018478</v>
+        <v>0.7637950363805757</v>
       </c>
       <c r="CD2">
-        <v>0.8023259548725088</v>
+        <v>0.8038157683577736</v>
       </c>
       <c r="CE2">
-        <v>0.7973792643002665</v>
+        <v>0.7847100663544776</v>
       </c>
       <c r="CF2">
-        <v>0.7480285453395848</v>
+        <v>0.8122222461536432</v>
       </c>
       <c r="CG2">
-        <v>0.774741844928774</v>
+        <v>0.7822602923457862</v>
       </c>
       <c r="CH2">
-        <v>0.7639212046912579</v>
+        <v>0.7948142023740031</v>
       </c>
       <c r="CI2">
-        <v>0.7827470101161702</v>
+        <v>0.7628192999966471</v>
       </c>
       <c r="CJ2">
-        <v>0.7429182370498489</v>
+        <v>0.8631206012264201</v>
       </c>
       <c r="CK2">
-        <v>0.7921136009835854</v>
+        <v>0.7806924331198793</v>
       </c>
       <c r="CL2">
-        <v>0.8373990149589203</v>
+        <v>0.7830841771178999</v>
       </c>
       <c r="CM2">
-        <v>0.7994620009489368</v>
+        <v>0.7613021305084416</v>
       </c>
       <c r="CN2">
-        <v>0.7932919119904068</v>
+        <v>0.8252648786630449</v>
       </c>
       <c r="CO2">
-        <v>0.7531118656696657</v>
+        <v>0.8029169596005943</v>
       </c>
       <c r="CP2">
-        <v>0.7869796843187425</v>
+        <v>0.7829529062927201</v>
       </c>
       <c r="CQ2">
-        <v>0.7880116051507889</v>
+        <v>0.6801114941857183</v>
       </c>
       <c r="CR2">
-        <v>0.7572239536479816</v>
+        <v>0.8070495688037621</v>
       </c>
       <c r="CS2">
-        <v>0.8045649422543416</v>
+        <v>0.7437836552347483</v>
       </c>
       <c r="CT2">
-        <v>0.8124028083507991</v>
+        <v>0.7557260971577807</v>
       </c>
       <c r="CU2">
-        <v>0.7847597840085563</v>
+        <v>0.7833557230557945</v>
       </c>
       <c r="CV2">
-        <v>0.7605740636693747</v>
+        <v>0.7769010523212383</v>
       </c>
       <c r="CW2">
-        <v>0.8051925090206659</v>
+        <v>0.7995773611345816</v>
       </c>
     </row>
     <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>0.9028362048825752</v>
+      </c>
+      <c r="D3">
+        <v>0.8774595444847539</v>
+      </c>
+      <c r="E3">
         <v>0.8658734884507862</v>
       </c>
-      <c r="C3">
+      <c r="H3">
+        <v>0.8780989685067049</v>
+      </c>
+      <c r="I3">
+        <v>0.8783239851063146</v>
+      </c>
+      <c r="J3">
         <v>0.8296649325117746</v>
       </c>
-      <c r="D3">
-        <v>0.847341103770118</v>
-      </c>
-      <c r="E3">
-        <v>0.8096495525061995</v>
-      </c>
-      <c r="F3">
+      <c r="K3">
         <v>0.8673302692942394</v>
       </c>
-      <c r="G3">
-        <v>0.8474329896141123</v>
-      </c>
-      <c r="H3">
+      <c r="L3">
+        <v>0.8350367921032624</v>
+      </c>
+      <c r="M3">
+        <v>0.8222579161254512</v>
+      </c>
+      <c r="N3">
         <v>0.8649186035887766</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>0.8536340360041024</v>
       </c>
-      <c r="L3">
-        <v>0.8308564362837889</v>
-      </c>
-      <c r="N3">
-        <v>0.8603622425491353</v>
-      </c>
       <c r="P3">
-        <v>0.839533929548844</v>
-      </c>
-      <c r="R3">
-        <v>0.8260660220563101</v>
-      </c>
-      <c r="S3">
-        <v>0.8831594419298552</v>
+        <v>0.8527515212409542</v>
+      </c>
+      <c r="Q3">
+        <v>0.860223686079562</v>
       </c>
       <c r="T3">
-        <v>0.8255042624442119</v>
+        <v>0.9057482100484108</v>
+      </c>
+      <c r="U3">
+        <v>0.8368099443133786</v>
       </c>
       <c r="V3">
-        <v>0.8864434364508915</v>
-      </c>
-      <c r="X3">
-        <v>0.8780989685067049</v>
+        <v>0.8488330697460525</v>
+      </c>
+      <c r="W3">
+        <v>0.8687925278997057</v>
       </c>
       <c r="Y3">
-        <v>0.8635285982760058</v>
+        <v>0.876636786801043</v>
       </c>
       <c r="Z3">
-        <v>0.8783239851063146</v>
-      </c>
-      <c r="AB3">
-        <v>0.8485657381566755</v>
+        <v>0.8544148670012144</v>
+      </c>
+      <c r="AA3">
+        <v>0.8357663289143612</v>
       </c>
       <c r="AC3">
-        <v>0.8351317564372757</v>
+        <v>0.702467695589956</v>
       </c>
       <c r="AD3">
-        <v>0.8451942560235542</v>
-      </c>
-      <c r="AE3">
-        <v>0.8827051152141759</v>
+        <v>0.9404794123214968</v>
       </c>
       <c r="AF3">
-        <v>0.866498539900579</v>
+        <v>0.8829545270786857</v>
       </c>
       <c r="AG3">
-        <v>0.8363940039470456</v>
-      </c>
-      <c r="AH3">
-        <v>0.7767873866010878</v>
+        <v>0.8715911797037735</v>
       </c>
       <c r="AI3">
-        <v>0.8671444221943441</v>
+        <v>0.8677117145851405</v>
       </c>
       <c r="AJ3">
-        <v>0.9133786069780808</v>
+        <v>0.897684336345663</v>
+      </c>
+      <c r="AK3">
+        <v>0.8862730023389385</v>
       </c>
       <c r="AL3">
-        <v>0.8100962049864205</v>
+        <v>0.8814455618225288</v>
+      </c>
+      <c r="AM3">
+        <v>0.7972088150603056</v>
       </c>
       <c r="AN3">
-        <v>0.9243606749316378</v>
+        <v>0.8568314396841645</v>
       </c>
       <c r="AO3">
-        <v>0.8226256693928411</v>
+        <v>0.9394694452172824</v>
       </c>
       <c r="AP3">
-        <v>0.9142490244922976</v>
+        <v>0.8301505219485495</v>
       </c>
       <c r="AQ3">
-        <v>0.8776338303061325</v>
+        <v>0.7842495982985971</v>
       </c>
       <c r="AR3">
-        <v>0.8489584916340546</v>
+        <v>0.8444830410211582</v>
       </c>
       <c r="AT3">
-        <v>0.840656313706621</v>
+        <v>0.8233515412549109</v>
+      </c>
+      <c r="AU3">
+        <v>0.8237920527688349</v>
       </c>
       <c r="AV3">
-        <v>0.873984471723804</v>
+        <v>0.8272409317987339</v>
       </c>
       <c r="AW3">
-        <v>0.9081654915165646</v>
+        <v>0.844005063536827</v>
       </c>
       <c r="AX3">
-        <v>0.8346350713765145</v>
+        <v>0.806633128158016</v>
       </c>
       <c r="AY3">
-        <v>0.7558009994158308</v>
-      </c>
-      <c r="AZ3">
-        <v>0.8427587947506997</v>
+        <v>0.8928097024662093</v>
       </c>
       <c r="BA3">
-        <v>0.8673328178684191</v>
+        <v>0.8882143345284365</v>
       </c>
       <c r="BB3">
-        <v>0.8747896763861978</v>
+        <v>0.8473828775321974</v>
       </c>
       <c r="BC3">
-        <v>0.8158723082346454</v>
+        <v>0.8520221503282279</v>
       </c>
       <c r="BD3">
-        <v>0.8250687960812455</v>
+        <v>0.7814524328918321</v>
       </c>
       <c r="BE3">
-        <v>0.8492871114948636</v>
+        <v>0.8681767039837944</v>
       </c>
       <c r="BF3">
-        <v>0.8759109068622504</v>
-      </c>
-      <c r="BG3">
-        <v>0.867385810732341</v>
+        <v>0.8076161993030188</v>
       </c>
       <c r="BH3">
-        <v>0.8501547534332343</v>
+        <v>0.8420404604098578</v>
       </c>
       <c r="BI3">
-        <v>0.8169782947407193</v>
+        <v>0.8797438067600732</v>
       </c>
       <c r="BJ3">
-        <v>0.8163894332232865</v>
+        <v>0.8385786561958649</v>
+      </c>
+      <c r="BK3">
+        <v>0.865127806117248</v>
       </c>
       <c r="BL3">
-        <v>0.8372269514464843</v>
-      </c>
-      <c r="BM3">
-        <v>0.8157701664699</v>
+        <v>0.810977918697937</v>
+      </c>
+      <c r="BN3">
+        <v>0.8658389680609931</v>
+      </c>
+      <c r="BO3">
+        <v>0.8359551841918449</v>
+      </c>
+      <c r="BP3">
+        <v>0.7811742966985704</v>
       </c>
       <c r="BQ3">
-        <v>0.846023628325232</v>
+        <v>0.7351037276670669</v>
       </c>
       <c r="BR3">
-        <v>0.8444236686014412</v>
+        <v>0.8417436058450304</v>
       </c>
       <c r="BS3">
-        <v>0.8671446826985361</v>
+        <v>0.8344452692140669</v>
       </c>
       <c r="BT3">
-        <v>0.7825172671233898</v>
+        <v>0.8404028508866862</v>
       </c>
       <c r="BU3">
-        <v>0.8295709431492267</v>
+        <v>0.8357446968767968</v>
       </c>
       <c r="BV3">
-        <v>0.8186789997732102</v>
+        <v>0.7643017610778789</v>
       </c>
       <c r="BW3">
-        <v>0.7904711914624943</v>
+        <v>0.8481614784706746</v>
       </c>
       <c r="BX3">
-        <v>0.8429804401103708</v>
-      </c>
-      <c r="CA3">
-        <v>0.8432654324118799</v>
+        <v>0.8252127592092928</v>
+      </c>
+      <c r="BY3">
+        <v>0.8491831069875081</v>
+      </c>
+      <c r="BZ3">
+        <v>0.8410714270160496</v>
       </c>
       <c r="CB3">
-        <v>0.7964001366625788</v>
+        <v>0.8212443050425056</v>
+      </c>
+      <c r="CC3">
+        <v>0.737370706060564</v>
       </c>
       <c r="CD3">
-        <v>0.858002132427935</v>
+        <v>0.8130720653225131</v>
       </c>
       <c r="CE3">
-        <v>0.8280732821337184</v>
+        <v>0.753741541749425</v>
       </c>
       <c r="CF3">
-        <v>0.8134185781612852</v>
+        <v>0.7841065192812229</v>
+      </c>
+      <c r="CG3">
+        <v>0.8289770801805766</v>
       </c>
       <c r="CH3">
-        <v>0.7909174500715033</v>
+        <v>0.8186037360906817</v>
+      </c>
+      <c r="CI3">
+        <v>0.7166563750405881</v>
       </c>
       <c r="CK3">
-        <v>0.8354784006019216</v>
+        <v>0.8427947488684447</v>
+      </c>
+      <c r="CL3">
+        <v>0.8328275981138911</v>
       </c>
       <c r="CM3">
-        <v>0.8457833189752202</v>
+        <v>0.842948855663056</v>
       </c>
       <c r="CN3">
-        <v>0.8165015703452014</v>
+        <v>0.8257764064272737</v>
+      </c>
+      <c r="CO3">
+        <v>0.8495258610265637</v>
       </c>
       <c r="CP3">
-        <v>0.819081931149105</v>
+        <v>0.7943133772639884</v>
+      </c>
+      <c r="CQ3">
+        <v>0.8001020354418087</v>
+      </c>
+      <c r="CR3">
+        <v>0.8340929892253292</v>
       </c>
       <c r="CS3">
-        <v>0.8384441253650774</v>
+        <v>0.7919246403371223</v>
+      </c>
+      <c r="CT3">
+        <v>0.6736759634927475</v>
+      </c>
+      <c r="CU3">
+        <v>0.8330879447403277</v>
+      </c>
+      <c r="CV3">
+        <v>0.8318716718649509</v>
+      </c>
+      <c r="CW3">
+        <v>0.8037495868185573</v>
       </c>
     </row>
     <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0.8491343916440784</v>
+      </c>
       <c r="C4">
+        <v>0.8919557251312554</v>
+      </c>
+      <c r="D4">
+        <v>0.870963625378401</v>
+      </c>
+      <c r="E4">
+        <v>0.8782321538691229</v>
+      </c>
+      <c r="H4">
+        <v>0.8889976077215098</v>
+      </c>
+      <c r="I4">
+        <v>0.8798848488771469</v>
+      </c>
+      <c r="J4">
         <v>0.8457816136001106</v>
       </c>
-      <c r="D4">
-        <v>0.838349740415018</v>
-      </c>
-      <c r="E4">
-        <v>0.8137225272040433</v>
-      </c>
-      <c r="F4">
+      <c r="K4">
         <v>0.8720101467315317</v>
       </c>
-      <c r="H4">
+      <c r="L4">
+        <v>0.8434255534484398</v>
+      </c>
+      <c r="M4">
+        <v>0.8205884013570116</v>
+      </c>
+      <c r="N4">
         <v>0.8683329699274785</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>0.8291069639618804</v>
       </c>
-      <c r="L4">
-        <v>0.8372731244293353</v>
-      </c>
-      <c r="N4">
-        <v>0.8583915101436912</v>
+      <c r="P4">
+        <v>0.8573983888381039</v>
       </c>
       <c r="Q4">
-        <v>0.8623572926555302</v>
-      </c>
-      <c r="R4">
-        <v>0.8416595815511086</v>
-      </c>
-      <c r="S4">
-        <v>0.8920306321635597</v>
+        <v>0.8580690846538093</v>
       </c>
       <c r="T4">
-        <v>0.804157945957785</v>
+        <v>0.9036020770543396</v>
+      </c>
+      <c r="U4">
+        <v>0.8371543262242321</v>
       </c>
       <c r="V4">
-        <v>0.8782522709272738</v>
+        <v>0.8566245794295831</v>
       </c>
       <c r="W4">
-        <v>0.8497481343005977</v>
-      </c>
-      <c r="X4">
-        <v>0.8889976077215098</v>
-      </c>
-      <c r="Y4">
-        <v>0.8663907539398348</v>
+        <v>0.8747608449878131</v>
+      </c>
+      <c r="Z4">
+        <v>0.8581363205748871</v>
+      </c>
+      <c r="AA4">
+        <v>0.8923631091956201</v>
       </c>
       <c r="AC4">
-        <v>0.8478295352604392</v>
-      </c>
-      <c r="AE4">
-        <v>0.8852140307243859</v>
+        <v>0.7579384935220431</v>
+      </c>
+      <c r="AD4">
+        <v>0.9367356556029588</v>
       </c>
       <c r="AF4">
-        <v>0.9105071757683236</v>
-      </c>
-      <c r="AH4">
-        <v>0.7959332738970507</v>
+        <v>0.8835568348062854</v>
+      </c>
+      <c r="AG4">
+        <v>0.8627195898745041</v>
       </c>
       <c r="AI4">
-        <v>0.8687960330114635</v>
+        <v>0.874883094390405</v>
       </c>
       <c r="AJ4">
-        <v>0.9146736105813312</v>
+        <v>0.8976442069393508</v>
+      </c>
+      <c r="AK4">
+        <v>0.888132739076485</v>
       </c>
       <c r="AL4">
-        <v>0.8315270997090031</v>
+        <v>0.8873863201105067</v>
+      </c>
+      <c r="AM4">
+        <v>0.7923283237729769</v>
+      </c>
+      <c r="AN4">
+        <v>0.8521537832988476</v>
       </c>
       <c r="AO4">
-        <v>0.8492786489824538</v>
+        <v>0.9340946700821836</v>
       </c>
       <c r="AP4">
-        <v>0.910846968787008</v>
+        <v>0.8209725565313968</v>
       </c>
       <c r="AQ4">
-        <v>0.8815831998924966</v>
+        <v>0.8153069238156235</v>
       </c>
       <c r="AR4">
-        <v>0.8500481889727535</v>
-      </c>
-      <c r="AS4">
-        <v>0.923359146246201</v>
+        <v>0.8511441056865947</v>
       </c>
       <c r="AT4">
-        <v>0.8849396582804724</v>
+        <v>0.832870095440147</v>
+      </c>
+      <c r="AU4">
+        <v>0.8489700384111742</v>
       </c>
       <c r="AV4">
-        <v>0.8771204418382611</v>
+        <v>0.8322954342282064</v>
       </c>
       <c r="AW4">
-        <v>0.8942604072506785</v>
+        <v>0.8138216040112253</v>
       </c>
       <c r="AX4">
-        <v>0.8535482805398787</v>
+        <v>0.8202743182562374</v>
+      </c>
+      <c r="AY4">
+        <v>0.8645335573898624</v>
       </c>
       <c r="AZ4">
-        <v>0.856523653555522</v>
+        <v>0.7175142338330347</v>
       </c>
       <c r="BA4">
-        <v>0.8714297910533362</v>
+        <v>0.89161079869222</v>
       </c>
       <c r="BB4">
-        <v>0.8667707585205958</v>
+        <v>0.8434025435799012</v>
       </c>
       <c r="BC4">
-        <v>0.8081937947910637</v>
+        <v>0.8487076026737355</v>
       </c>
       <c r="BD4">
-        <v>0.8435445062338794</v>
+        <v>0.7698149454355947</v>
       </c>
       <c r="BE4">
-        <v>0.861990277899265</v>
+        <v>0.8743162007452645</v>
       </c>
       <c r="BF4">
-        <v>0.8718225153002203</v>
-      </c>
-      <c r="BG4">
-        <v>0.8461523736608655</v>
+        <v>0.8220364129288616</v>
       </c>
       <c r="BH4">
-        <v>0.8469031258451595</v>
+        <v>0.844951416779668</v>
       </c>
       <c r="BI4">
-        <v>0.8307536669874646</v>
+        <v>0.8828399304421961</v>
       </c>
       <c r="BJ4">
-        <v>0.8230447690617613</v>
+        <v>0.8366607018111708</v>
+      </c>
+      <c r="BK4">
+        <v>0.8471238285023687</v>
       </c>
       <c r="BL4">
-        <v>0.8311736837704184</v>
+        <v>0.807684752145102</v>
       </c>
       <c r="BM4">
-        <v>0.8132208351934769</v>
+        <v>0.7410314430747136</v>
       </c>
       <c r="BN4">
-        <v>0.7918165413575307</v>
+        <v>0.8558697257855906</v>
       </c>
       <c r="BO4">
-        <v>0.8031266140322576</v>
+        <v>0.8008184548924056</v>
+      </c>
+      <c r="BP4">
+        <v>0.813425601712144</v>
+      </c>
+      <c r="BQ4">
+        <v>0.6908987405846821</v>
       </c>
       <c r="BR4">
-        <v>0.8434908985145904</v>
+        <v>0.826490718748592</v>
       </c>
       <c r="BS4">
-        <v>0.870603341572818</v>
+        <v>0.8241968288353017</v>
+      </c>
+      <c r="BT4">
+        <v>0.8381971334542675</v>
       </c>
       <c r="BU4">
-        <v>0.8243529073444982</v>
+        <v>0.8271383476525969</v>
+      </c>
+      <c r="BV4">
+        <v>0.7658658828098854</v>
+      </c>
+      <c r="BW4">
+        <v>0.8297059444712033</v>
       </c>
       <c r="BX4">
-        <v>0.831050555681656</v>
+        <v>0.8174489860942078</v>
       </c>
       <c r="BY4">
-        <v>0.8849982072685665</v>
-      </c>
-      <c r="CA4">
-        <v>0.8218083983334142</v>
+        <v>0.8524453747682054</v>
+      </c>
+      <c r="BZ4">
+        <v>0.8404212061241992</v>
+      </c>
+      <c r="CB4">
+        <v>0.8031035032100258</v>
+      </c>
+      <c r="CC4">
+        <v>0.6875435443235446</v>
+      </c>
+      <c r="CD4">
+        <v>0.7789301121305442</v>
       </c>
       <c r="CE4">
-        <v>0.8003897976120934</v>
+        <v>0.7615071894753351</v>
       </c>
       <c r="CF4">
-        <v>0.7873257915734284</v>
+        <v>0.7916961280166434</v>
+      </c>
+      <c r="CG4">
+        <v>0.8198891115687071</v>
       </c>
       <c r="CH4">
-        <v>0.7678506970194517</v>
+        <v>0.8102059726242977</v>
       </c>
       <c r="CI4">
-        <v>0.7827154004025483</v>
+        <v>0.7059359555476965</v>
       </c>
       <c r="CK4">
-        <v>0.8234077980446637</v>
+        <v>0.8434016345119205</v>
       </c>
       <c r="CL4">
-        <v>0.8451167575770826</v>
+        <v>0.8257016447095771</v>
       </c>
       <c r="CM4">
-        <v>0.8363183628582562</v>
+        <v>0.8441109984294223</v>
       </c>
       <c r="CN4">
-        <v>0.8102786068111929</v>
+        <v>0.8067093183773797</v>
+      </c>
+      <c r="CO4">
+        <v>0.8102409245877011</v>
       </c>
       <c r="CP4">
-        <v>0.8294492819790826</v>
+        <v>0.8074061629401059</v>
+      </c>
+      <c r="CQ4">
+        <v>0.8379093613084163</v>
+      </c>
+      <c r="CR4">
+        <v>0.832076259529497</v>
       </c>
       <c r="CS4">
-        <v>0.8357815642275946</v>
+        <v>0.7481223181714821</v>
+      </c>
+      <c r="CT4">
+        <v>0.5451520027279685</v>
       </c>
       <c r="CU4">
-        <v>0.8284618561159011</v>
+        <v>0.8245761700011106</v>
+      </c>
+      <c r="CV4">
+        <v>0.8406592359017461</v>
+      </c>
+      <c r="CW4">
+        <v>0.8526709769052948</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -1396,193 +1510,262 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.8565209181489301</v>
+      </c>
+      <c r="C5">
+        <v>0.9090336724816628</v>
+      </c>
+      <c r="D5">
+        <v>0.8781050103608868</v>
+      </c>
+      <c r="E5">
         <v>0.8731018145467321</v>
       </c>
-      <c r="C5">
+      <c r="H5">
+        <v>0.8840103692175424</v>
+      </c>
+      <c r="I5">
+        <v>0.8827338279457417</v>
+      </c>
+      <c r="J5">
         <v>0.8477715475805367</v>
       </c>
-      <c r="D5">
-        <v>0.8305571047560936</v>
-      </c>
-      <c r="F5">
+      <c r="K5">
         <v>0.8645265762293074</v>
       </c>
-      <c r="G5">
-        <v>0.846642835838704</v>
-      </c>
-      <c r="H5">
+      <c r="L5">
+        <v>0.8394409859091829</v>
+      </c>
+      <c r="M5">
+        <v>0.8212634657956398</v>
+      </c>
+      <c r="N5">
         <v>0.860015759068781</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>0.8581494280382459</v>
       </c>
-      <c r="N5">
-        <v>0.8563555740426974</v>
-      </c>
-      <c r="O5">
+      <c r="P5">
+        <v>0.8480422126131992</v>
+      </c>
+      <c r="Q5">
+        <v>0.8563115152750199</v>
+      </c>
+      <c r="R5">
         <v>0.8721793378004753</v>
       </c>
-      <c r="S5">
-        <v>0.8844129300133727</v>
-      </c>
-      <c r="T5">
-        <v>0.8336525716395665</v>
+      <c r="U5">
+        <v>0.8411021952367764</v>
       </c>
       <c r="V5">
-        <v>0.886888103692301</v>
+        <v>0.8589651471445402</v>
       </c>
       <c r="W5">
-        <v>0.8564319185757775</v>
-      </c>
-      <c r="X5">
-        <v>0.8840103692175424</v>
-      </c>
-      <c r="Y5">
-        <v>0.8608083002344635</v>
+        <v>0.8615145714853192</v>
       </c>
       <c r="Z5">
-        <v>0.8827338279457417</v>
-      </c>
-      <c r="AB5">
-        <v>0.8280110541554863</v>
+        <v>0.8507921754401658</v>
+      </c>
+      <c r="AA5">
+        <v>0.879660182041158</v>
       </c>
       <c r="AC5">
-        <v>0.850954477594129</v>
-      </c>
-      <c r="AD5">
-        <v>0.8105213237030228</v>
-      </c>
-      <c r="AE5">
-        <v>0.8709410227672173</v>
-      </c>
-      <c r="AH5">
-        <v>0.782932442442402</v>
+        <v>0.5900353701471935</v>
+      </c>
+      <c r="AF5">
+        <v>0.8749287150551426</v>
+      </c>
+      <c r="AG5">
+        <v>0.8547954565445148</v>
       </c>
       <c r="AI5">
-        <v>0.8617317262314736</v>
+        <v>0.864285313427343</v>
       </c>
       <c r="AJ5">
-        <v>0.903716701819219</v>
+        <v>0.890317132385804</v>
+      </c>
+      <c r="AK5">
+        <v>0.8680968605162755</v>
       </c>
       <c r="AL5">
-        <v>0.8134982940326243</v>
-      </c>
-      <c r="AO5">
-        <v>0.8246580162508091</v>
+        <v>0.8866749957816437</v>
+      </c>
+      <c r="AM5">
+        <v>0.7968452025550452</v>
+      </c>
+      <c r="AN5">
+        <v>0.842365826875345</v>
       </c>
       <c r="AP5">
-        <v>0.90269844140885</v>
+        <v>0.8343372031647406</v>
       </c>
       <c r="AQ5">
-        <v>0.8778861252421538</v>
+        <v>0.8014370447245219</v>
       </c>
       <c r="AR5">
-        <v>0.8376379302912241</v>
+        <v>0.8438481478131284</v>
       </c>
       <c r="AT5">
-        <v>0.8654082796296456</v>
+        <v>0.8216415512980249</v>
+      </c>
+      <c r="AU5">
+        <v>0.8345122278417868</v>
       </c>
       <c r="AV5">
-        <v>0.8665414028374526</v>
+        <v>0.8333563078596492</v>
       </c>
       <c r="AW5">
-        <v>0.9042678980546164</v>
+        <v>0.8401352139322799</v>
       </c>
       <c r="AX5">
-        <v>0.836818727343004</v>
+        <v>0.8164255719219956</v>
       </c>
       <c r="AY5">
-        <v>0.7644817337511467</v>
+        <v>0.89729587576896</v>
       </c>
       <c r="AZ5">
-        <v>0.8669067128199922</v>
+        <v>0.6956233703721004</v>
       </c>
       <c r="BA5">
-        <v>0.8736363298203795</v>
+        <v>0.8974406150425636</v>
       </c>
       <c r="BB5">
-        <v>0.852099258451725</v>
+        <v>0.8334818939411547</v>
       </c>
       <c r="BC5">
-        <v>0.8187020154222528</v>
+        <v>0.8604539642373622</v>
       </c>
       <c r="BD5">
-        <v>0.8272852979698663</v>
+        <v>0.7463448715066923</v>
       </c>
       <c r="BE5">
-        <v>0.856284084271603</v>
+        <v>0.8750865634535174</v>
       </c>
       <c r="BF5">
-        <v>0.8666459818068787</v>
+        <v>0.8246932439258117</v>
+      </c>
+      <c r="BG5">
+        <v>0.7036156932687785</v>
       </c>
       <c r="BH5">
-        <v>0.8474622307007142</v>
+        <v>0.8372362688202769</v>
       </c>
       <c r="BI5">
-        <v>0.8332920319880783</v>
+        <v>0.8871680753823764</v>
       </c>
       <c r="BJ5">
-        <v>0.8196483577049177</v>
+        <v>0.8308770619364357</v>
+      </c>
+      <c r="BK5">
+        <v>0.8359596438413002</v>
       </c>
       <c r="BL5">
-        <v>0.803081229225557</v>
+        <v>0.8055505904440246</v>
+      </c>
+      <c r="BM5">
+        <v>0.6695473798808799</v>
+      </c>
+      <c r="BN5">
+        <v>0.853911481081141</v>
+      </c>
+      <c r="BO5">
+        <v>0.7850409101473094</v>
       </c>
       <c r="BP5">
-        <v>0.8996372818779624</v>
+        <v>0.7883677158219897</v>
+      </c>
+      <c r="BQ5">
+        <v>0.6927207799648065</v>
       </c>
       <c r="BR5">
-        <v>0.8404256793185458</v>
+        <v>0.8304747135547276</v>
       </c>
       <c r="BS5">
-        <v>0.8715116978250574</v>
+        <v>0.8084426513321309</v>
+      </c>
+      <c r="BT5">
+        <v>0.8093157938569681</v>
       </c>
       <c r="BU5">
-        <v>0.8022966708346686</v>
+        <v>0.8263170212364114</v>
       </c>
       <c r="BV5">
-        <v>0.8141110788689621</v>
+        <v>0.7887749964690947</v>
+      </c>
+      <c r="BW5">
+        <v>0.8244195787730358</v>
       </c>
       <c r="BX5">
-        <v>0.8274227363748093</v>
+        <v>0.8163043998848248</v>
       </c>
       <c r="BY5">
-        <v>0.8695429607051252</v>
-      </c>
-      <c r="CA5">
-        <v>0.822151508479088</v>
+        <v>0.8142945118224636</v>
+      </c>
+      <c r="BZ5">
+        <v>0.8507418084724964</v>
+      </c>
+      <c r="CB5">
+        <v>0.7981648534678937</v>
       </c>
       <c r="CC5">
-        <v>0.7961430102927597</v>
+        <v>0.6571254819517494</v>
       </c>
       <c r="CD5">
-        <v>0.8643726582099971</v>
+        <v>0.7874136997327927</v>
       </c>
       <c r="CE5">
-        <v>0.8262205031470042</v>
+        <v>0.7643561114477542</v>
+      </c>
+      <c r="CF5">
+        <v>0.7691658912843969</v>
+      </c>
+      <c r="CG5">
+        <v>0.8311265396866486</v>
       </c>
       <c r="CH5">
-        <v>0.7938287880519007</v>
+        <v>0.7985838820117768</v>
+      </c>
+      <c r="CI5">
+        <v>0.6703022375218211</v>
       </c>
       <c r="CK5">
-        <v>0.8347068971087557</v>
+        <v>0.8342065763973098</v>
+      </c>
+      <c r="CL5">
+        <v>0.8172405781384557</v>
       </c>
       <c r="CM5">
-        <v>0.8539393837308805</v>
+        <v>0.8347968148766163</v>
       </c>
       <c r="CN5">
-        <v>0.8017676019277401</v>
+        <v>0.8137391327262588</v>
+      </c>
+      <c r="CO5">
+        <v>0.8423137724825834</v>
       </c>
       <c r="CP5">
-        <v>0.8381931352694872</v>
+        <v>0.818784654158332</v>
+      </c>
+      <c r="CQ5">
+        <v>0.8435385295484749</v>
+      </c>
+      <c r="CR5">
+        <v>0.816035297610393</v>
       </c>
       <c r="CS5">
-        <v>0.8124443563571744</v>
+        <v>0.7228609269451708</v>
+      </c>
+      <c r="CT5">
+        <v>0.6278121046816115</v>
       </c>
       <c r="CU5">
-        <v>0.8306533556934214</v>
+        <v>0.8431765411955431</v>
+      </c>
+      <c r="CV5">
+        <v>0.8436374770043328</v>
       </c>
       <c r="CW5">
-        <v>0.7388376536273314</v>
+        <v>0.8294474004136372</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -1590,408 +1773,552 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.865143523864072</v>
+      </c>
+      <c r="D6">
+        <v>0.9128763307850588</v>
+      </c>
+      <c r="E6">
         <v>0.8772908629280646</v>
       </c>
-      <c r="C6">
+      <c r="F6">
+        <v>0.8583088638045214</v>
+      </c>
+      <c r="H6">
+        <v>0.88062540412303</v>
+      </c>
+      <c r="I6">
+        <v>0.8947291373681496</v>
+      </c>
+      <c r="J6">
         <v>0.873247262427871</v>
       </c>
-      <c r="D6">
-        <v>0.874739217692978</v>
-      </c>
-      <c r="F6">
+      <c r="K6">
         <v>0.8542186478781914</v>
       </c>
-      <c r="G6">
-        <v>0.8574650770904206</v>
-      </c>
-      <c r="H6">
+      <c r="L6">
+        <v>0.839100176118069</v>
+      </c>
+      <c r="M6">
+        <v>0.8317474472444766</v>
+      </c>
+      <c r="N6">
         <v>0.8578788650311406</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>0.8683818364769664</v>
       </c>
-      <c r="J6">
-        <v>0.8252020951538687</v>
-      </c>
-      <c r="M6">
-        <v>0.8583088638045214</v>
-      </c>
-      <c r="N6">
-        <v>0.8947539787753218</v>
+      <c r="P6">
+        <v>0.8274109581517209</v>
       </c>
       <c r="Q6">
-        <v>0.8693724858147724</v>
-      </c>
-      <c r="S6">
-        <v>0.8764608053208933</v>
-      </c>
-      <c r="T6">
-        <v>0.8614241734621422</v>
+        <v>0.8945440363493139</v>
+      </c>
+      <c r="V6">
+        <v>0.8479136208997259</v>
       </c>
       <c r="W6">
-        <v>0.8630110809123899</v>
-      </c>
-      <c r="X6">
-        <v>0.88062540412303</v>
+        <v>0.9063823575277592</v>
       </c>
       <c r="Y6">
-        <v>0.8493116186951156</v>
+        <v>0.8657413405794978</v>
+      </c>
+      <c r="Z6">
+        <v>0.8331451467360796</v>
       </c>
       <c r="AA6">
-        <v>0.8767170109642025</v>
-      </c>
-      <c r="AB6">
-        <v>0.8181895709841345</v>
+        <v>0.8984112420070736</v>
       </c>
       <c r="AC6">
-        <v>0.8482499630143723</v>
+        <v>0.6057152573596887</v>
       </c>
       <c r="AD6">
-        <v>0.8181287014049692</v>
+        <v>0.9436887730788656</v>
       </c>
       <c r="AE6">
-        <v>0.8772614145805876</v>
+        <v>0.8760786772620048</v>
+      </c>
+      <c r="AF6">
+        <v>0.8767716606981141</v>
       </c>
       <c r="AG6">
-        <v>0.8597742549782594</v>
+        <v>0.8807632897262734</v>
       </c>
       <c r="AH6">
-        <v>0.803702517461086</v>
+        <v>0.8808408203811172</v>
+      </c>
+      <c r="AI6">
+        <v>0.8691142462397112</v>
       </c>
       <c r="AJ6">
-        <v>0.9088721661884004</v>
+        <v>0.8934639202115795</v>
       </c>
       <c r="AK6">
-        <v>0.8585295247202511</v>
+        <v>0.8931997661231874</v>
+      </c>
+      <c r="AL6">
+        <v>0.8903977624721195</v>
       </c>
       <c r="AM6">
-        <v>0.8827734954467112</v>
+        <v>0.794197310362755</v>
       </c>
       <c r="AN6">
-        <v>0.9304645978625292</v>
+        <v>0.8512365372529112</v>
       </c>
       <c r="AO6">
-        <v>0.8377102586573655</v>
+        <v>0.9380053054040632</v>
       </c>
       <c r="AP6">
-        <v>0.9063595060088572</v>
+        <v>0.82194660237406</v>
       </c>
       <c r="AQ6">
-        <v>0.8869171400923201</v>
+        <v>0.7957261825453901</v>
       </c>
       <c r="AR6">
-        <v>0.8486517691589216</v>
+        <v>0.838962057237862</v>
+      </c>
+      <c r="AS6">
+        <v>0.8833612907055713</v>
+      </c>
+      <c r="AT6">
+        <v>0.8319302082558632</v>
+      </c>
+      <c r="AU6">
+        <v>0.8540749727357307</v>
       </c>
       <c r="AV6">
-        <v>0.8654950407339027</v>
+        <v>0.8276888676576258</v>
       </c>
       <c r="AW6">
-        <v>0.8694222856407454</v>
+        <v>0.882667181740497</v>
       </c>
       <c r="AX6">
-        <v>0.8405129405967096</v>
+        <v>0.8148121465284832</v>
+      </c>
+      <c r="AY6">
+        <v>0.8906842710913172</v>
+      </c>
+      <c r="AZ6">
+        <v>0.6714486257647446</v>
       </c>
       <c r="BA6">
-        <v>0.8634432674935251</v>
+        <v>0.8618673112121301</v>
       </c>
       <c r="BB6">
-        <v>0.842186373666703</v>
+        <v>0.8316458354741886</v>
+      </c>
+      <c r="BC6">
+        <v>0.8362009816144228</v>
       </c>
       <c r="BD6">
-        <v>0.8022713286628432</v>
+        <v>0.7564263123247212</v>
       </c>
       <c r="BE6">
-        <v>0.8449610916847303</v>
+        <v>0.8645346151636591</v>
       </c>
       <c r="BF6">
-        <v>0.8577575726870653</v>
+        <v>0.7891084945419428</v>
       </c>
       <c r="BG6">
-        <v>0.8358491470185038</v>
+        <v>0.6986893783465905</v>
+      </c>
+      <c r="BH6">
+        <v>0.8171077470289224</v>
       </c>
       <c r="BI6">
-        <v>0.8076448904341555</v>
+        <v>0.8774348382558761</v>
       </c>
       <c r="BJ6">
-        <v>0.8100058339289332</v>
+        <v>0.8225327795022018</v>
+      </c>
+      <c r="BK6">
+        <v>0.8332969263963976</v>
       </c>
       <c r="BL6">
-        <v>0.8147500314483044</v>
+        <v>0.7916941600659855</v>
+      </c>
+      <c r="BM6">
+        <v>0.6740464058667294</v>
+      </c>
+      <c r="BN6">
+        <v>0.8580952534098537</v>
       </c>
       <c r="BO6">
-        <v>0.7997452606362694</v>
+        <v>0.8016649015737559</v>
+      </c>
+      <c r="BP6">
+        <v>0.7666569789993242</v>
+      </c>
+      <c r="BQ6">
+        <v>0.6601335698256299</v>
       </c>
       <c r="BR6">
-        <v>0.8491580314720568</v>
+        <v>0.8204261407196636</v>
       </c>
       <c r="BS6">
-        <v>0.8652759401642431</v>
+        <v>0.8149458093927103</v>
+      </c>
+      <c r="BT6">
+        <v>0.820462885470464</v>
       </c>
       <c r="BU6">
-        <v>0.8076539463778338</v>
+        <v>0.8175156670272105</v>
       </c>
       <c r="BV6">
-        <v>0.7847169774529303</v>
+        <v>0.7817111836950037</v>
+      </c>
+      <c r="BW6">
+        <v>0.8319018563799095</v>
       </c>
       <c r="BX6">
-        <v>0.8222362508520112</v>
+        <v>0.8253983897822771</v>
       </c>
       <c r="BY6">
-        <v>0.8779498693307727</v>
+        <v>0.8314625693686242</v>
+      </c>
+      <c r="BZ6">
+        <v>0.8372171224724213</v>
       </c>
       <c r="CA6">
-        <v>0.8221196661103494</v>
+        <v>0.8269230627179246</v>
+      </c>
+      <c r="CB6">
+        <v>0.7947152021603943</v>
       </c>
       <c r="CC6">
-        <v>0.8533437751220126</v>
+        <v>0.7275640209201539</v>
       </c>
       <c r="CD6">
-        <v>0.8533466630301959</v>
+        <v>0.8079709065089886</v>
       </c>
       <c r="CE6">
-        <v>0.7995412962962674</v>
+        <v>0.7518235223095926</v>
       </c>
       <c r="CF6">
-        <v>0.7885573917583177</v>
+        <v>0.7814087619993262</v>
+      </c>
+      <c r="CG6">
+        <v>0.818864360857658</v>
       </c>
       <c r="CH6">
-        <v>0.7830490311812903</v>
+        <v>0.8242976635123278</v>
       </c>
       <c r="CI6">
-        <v>0.8048006857232192</v>
+        <v>0.6855849340776882</v>
       </c>
       <c r="CJ6">
-        <v>0.7856048930504456</v>
+        <v>0.8287479930785472</v>
       </c>
       <c r="CK6">
-        <v>0.8231099751123699</v>
+        <v>0.8185323208945063</v>
       </c>
       <c r="CL6">
-        <v>0.8009075325925457</v>
+        <v>0.8248377829634185</v>
       </c>
       <c r="CM6">
-        <v>0.8310479514169214</v>
+        <v>0.834052530231628</v>
       </c>
       <c r="CN6">
-        <v>0.8235078135672639</v>
+        <v>0.8068103146168085</v>
+      </c>
+      <c r="CO6">
+        <v>0.8449431238989137</v>
       </c>
       <c r="CP6">
-        <v>0.7948089465893914</v>
+        <v>0.7846343208799653</v>
       </c>
       <c r="CQ6">
-        <v>0.7873730765354745</v>
+        <v>0.7899190244195199</v>
+      </c>
+      <c r="CR6">
+        <v>0.8223653307464744</v>
       </c>
       <c r="CS6">
-        <v>0.8282593035383659</v>
+        <v>0.7762956291950781</v>
       </c>
       <c r="CT6">
-        <v>0.793045646446759</v>
+        <v>0.6269816818649891</v>
+      </c>
+      <c r="CU6">
+        <v>0.8200163102143301</v>
+      </c>
+      <c r="CV6">
+        <v>0.8435984267328481</v>
+      </c>
+      <c r="CW6">
+        <v>0.8402713595732219</v>
       </c>
     </row>
     <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
+        <v>0.918075588258762</v>
+      </c>
+      <c r="D7">
+        <v>0.8890975845704108</v>
+      </c>
+      <c r="E7">
         <v>0.8730525434864822</v>
       </c>
-      <c r="C7">
+      <c r="F7">
+        <v>0.8121240231219822</v>
+      </c>
+      <c r="H7">
+        <v>0.8908138606204364</v>
+      </c>
+      <c r="J7">
         <v>0.858608510731253</v>
       </c>
-      <c r="D7">
-        <v>0.8529768526877842</v>
-      </c>
-      <c r="F7">
+      <c r="K7">
         <v>0.8832186127294287</v>
       </c>
-      <c r="G7">
-        <v>0.8709277243633775</v>
-      </c>
-      <c r="H7">
+      <c r="L7">
+        <v>0.8530294855289304</v>
+      </c>
+      <c r="M7">
+        <v>0.8403001563584724</v>
+      </c>
+      <c r="N7">
         <v>0.8682000311412361</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>0.8742164454042911</v>
       </c>
-      <c r="L7">
-        <v>0.8393014705145049</v>
-      </c>
-      <c r="N7">
-        <v>0.8557632166929506</v>
-      </c>
-      <c r="R7">
-        <v>0.8396538326166906</v>
+      <c r="P7">
+        <v>0.8562715721724443</v>
+      </c>
+      <c r="Q7">
+        <v>0.855945941127308</v>
       </c>
       <c r="T7">
-        <v>0.8534064124191739</v>
+        <v>0.9227073879730192</v>
+      </c>
+      <c r="U7">
+        <v>0.8638776528009997</v>
       </c>
       <c r="V7">
-        <v>0.897286544951939</v>
-      </c>
-      <c r="X7">
-        <v>0.8908138606204364</v>
+        <v>0.8589617384926811</v>
+      </c>
+      <c r="W7">
+        <v>0.8577439322790748</v>
       </c>
       <c r="Y7">
-        <v>0.8767718343746962</v>
+        <v>0.8551648169066929</v>
       </c>
       <c r="Z7">
-        <v>0.8803297755899058</v>
+        <v>0.8668751603123037</v>
       </c>
       <c r="AA7">
-        <v>0.8534138280964751</v>
+        <v>0.8149828247927978</v>
       </c>
       <c r="AC7">
-        <v>0.866242399118781</v>
-      </c>
-      <c r="AD7">
-        <v>0.821778035775675</v>
+        <v>0.6290720700574297</v>
       </c>
       <c r="AE7">
-        <v>0.8611440035623467</v>
+        <v>0.8291821378533079</v>
+      </c>
+      <c r="AF7">
+        <v>0.8809578785563186</v>
+      </c>
+      <c r="AG7">
+        <v>0.86205006995668</v>
       </c>
       <c r="AH7">
-        <v>0.7941293237711247</v>
+        <v>0.8535998778414629</v>
       </c>
       <c r="AI7">
-        <v>0.8558936282632593</v>
+        <v>0.8489129632209704</v>
       </c>
       <c r="AJ7">
-        <v>0.902690677831006</v>
+        <v>0.8880343145312786</v>
       </c>
       <c r="AK7">
-        <v>0.8705480469114319</v>
+        <v>0.8788641713189577</v>
       </c>
       <c r="AL7">
-        <v>0.8379472748723713</v>
+        <v>0.9085879755293836</v>
       </c>
       <c r="AM7">
-        <v>0.8645512455979417</v>
+        <v>0.8147799102726366</v>
       </c>
       <c r="AO7">
-        <v>0.8089205433916828</v>
+        <v>0.9252919076729238</v>
       </c>
       <c r="AP7">
-        <v>0.8989458584103905</v>
+        <v>0.8359592224907421</v>
       </c>
       <c r="AQ7">
-        <v>0.8968381065121366</v>
+        <v>0.8301942687097987</v>
       </c>
       <c r="AR7">
-        <v>0.8265694079041638</v>
+        <v>0.8788744758208775</v>
+      </c>
+      <c r="AS7">
+        <v>0.8654733674838698</v>
       </c>
       <c r="AT7">
-        <v>0.8229804736007498</v>
+        <v>0.8140374591469907</v>
+      </c>
+      <c r="AU7">
+        <v>0.8361688741853645</v>
       </c>
       <c r="AV7">
-        <v>0.876382285370385</v>
+        <v>0.8304270907716531</v>
       </c>
       <c r="AW7">
-        <v>0.8895813917036437</v>
+        <v>0.8703563426936065</v>
       </c>
       <c r="AX7">
-        <v>0.8087237567760105</v>
+        <v>0.8472977836843665</v>
+      </c>
+      <c r="AY7">
+        <v>0.8995612653693145</v>
       </c>
       <c r="AZ7">
-        <v>0.8704414149546645</v>
+        <v>0.7255590335781015</v>
       </c>
       <c r="BA7">
-        <v>0.8751745406293918</v>
+        <v>0.9039179161081778</v>
       </c>
       <c r="BB7">
-        <v>0.8581573422649232</v>
+        <v>0.8376538495147584</v>
       </c>
       <c r="BC7">
-        <v>0.8386287776443017</v>
+        <v>0.8688514310986858</v>
+      </c>
+      <c r="BD7">
+        <v>0.7949421103948311</v>
       </c>
       <c r="BE7">
-        <v>0.8569227310317618</v>
+        <v>0.8756895933386944</v>
       </c>
       <c r="BF7">
-        <v>0.8693921321787039</v>
+        <v>0.8263247258685757</v>
       </c>
       <c r="BG7">
-        <v>0.8459629431453187</v>
+        <v>0.736414044979101</v>
+      </c>
+      <c r="BH7">
+        <v>0.8286248500904194</v>
       </c>
       <c r="BI7">
-        <v>0.837760612003854</v>
+        <v>0.8895422190911283</v>
       </c>
       <c r="BJ7">
-        <v>0.8291630654601233</v>
+        <v>0.8406691925137068</v>
+      </c>
+      <c r="BK7">
+        <v>0.8415895325820664</v>
       </c>
       <c r="BL7">
-        <v>0.8430411346579385</v>
+        <v>0.8223190621937284</v>
       </c>
       <c r="BM7">
-        <v>0.8204537703182402</v>
+        <v>0.7150864199908359</v>
+      </c>
+      <c r="BN7">
+        <v>0.870295432389353</v>
+      </c>
+      <c r="BO7">
+        <v>0.8504820136058796</v>
+      </c>
+      <c r="BP7">
+        <v>0.7787308566698661</v>
+      </c>
+      <c r="BQ7">
+        <v>0.7420701334575794</v>
       </c>
       <c r="BR7">
-        <v>0.851878679037685</v>
+        <v>0.8233149430984149</v>
       </c>
       <c r="BS7">
-        <v>0.8844287499613227</v>
+        <v>0.8262563264536095</v>
       </c>
       <c r="BT7">
-        <v>0.8266345172489495</v>
+        <v>0.8544495383319857</v>
       </c>
       <c r="BU7">
-        <v>0.8205873438353879</v>
+        <v>0.8347537308183111</v>
       </c>
       <c r="BV7">
-        <v>0.8203165118413959</v>
+        <v>0.7932557016961096</v>
       </c>
       <c r="BW7">
-        <v>0.7997814474814261</v>
+        <v>0.8325246907415844</v>
       </c>
       <c r="BX7">
-        <v>0.8350335431775336</v>
-      </c>
-      <c r="CA7">
-        <v>0.8344007892070942</v>
+        <v>0.8340901259299658</v>
+      </c>
+      <c r="BY7">
+        <v>0.8370501850171453</v>
+      </c>
+      <c r="BZ7">
+        <v>0.8558524265277252</v>
       </c>
       <c r="CB7">
-        <v>0.7993275919755959</v>
+        <v>0.8063591137230209</v>
       </c>
       <c r="CC7">
-        <v>0.8521319705865181</v>
+        <v>0.7254975721040373</v>
       </c>
       <c r="CD7">
-        <v>0.8665479137310798</v>
+        <v>0.8166838259694321</v>
       </c>
       <c r="CE7">
-        <v>0.8179253566209592</v>
+        <v>0.781780090291181</v>
       </c>
       <c r="CF7">
-        <v>0.7815628090339656</v>
+        <v>0.8120483309005866</v>
       </c>
       <c r="CG7">
-        <v>0.814397146257409</v>
+        <v>0.8315608147037067</v>
       </c>
       <c r="CH7">
-        <v>0.7866233703381046</v>
-      </c>
-      <c r="CJ7">
-        <v>0.8172502713559012</v>
+        <v>0.8299782143893257</v>
+      </c>
+      <c r="CI7">
+        <v>0.6843797598973153</v>
       </c>
       <c r="CK7">
-        <v>0.8363845993515261</v>
+        <v>0.8423555194258832</v>
+      </c>
+      <c r="CL7">
+        <v>0.8289991990617447</v>
       </c>
       <c r="CM7">
-        <v>0.8574056461954973</v>
+        <v>0.8524299206231669</v>
       </c>
       <c r="CN7">
-        <v>0.8298032421656675</v>
+        <v>0.8267634001707587</v>
+      </c>
+      <c r="CO7">
+        <v>0.8583549307359086</v>
       </c>
       <c r="CP7">
-        <v>0.8377804507079513</v>
+        <v>0.8162564166372277</v>
       </c>
       <c r="CQ7">
-        <v>0.7863716466880498</v>
+        <v>0.8121549661696407</v>
+      </c>
+      <c r="CR7">
+        <v>0.8273874632070971</v>
       </c>
       <c r="CS7">
-        <v>0.8292755406687378</v>
+        <v>0.7737590634328345</v>
+      </c>
+      <c r="CT7">
+        <v>0.7159615433758204</v>
+      </c>
+      <c r="CU7">
+        <v>0.8368044728166435</v>
+      </c>
+      <c r="CV7">
+        <v>0.839549112495388</v>
       </c>
       <c r="CW7">
-        <v>0.7786783637628214</v>
+        <v>0.8683281262120862</v>
       </c>
     </row>
   </sheetData>
